--- a/xlsx/田径_intext.xlsx
+++ b/xlsx/田径_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="318">
   <si>
     <t>田径</t>
   </si>
@@ -29,7 +29,7 @@
     <t>国际田径联合会</t>
   </si>
   <si>
-    <t>政策_政策_美國_田径</t>
+    <t>政策_政策_美国_田径</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E8%B3%BD%E5%92%8C%E5%BE%91%E8%B3%BD</t>
   </si>
   <si>
-    <t>田賽和徑賽</t>
+    <t>田赛和径赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%9E%E8%B5%B0</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E9%A0%85%E5%85%A8%E8%83%BD</t>
   </si>
   <si>
-    <t>十項全能</t>
+    <t>十项全能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A5%E5%8A%9B%E8%B3%BD%E8%B7%91</t>
   </si>
   <si>
-    <t>接力賽跑</t>
+    <t>接力赛跑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A</t>
@@ -125,19 +125,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B6%8A%E9%87%8E%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>世界越野錦標賽</t>
+    <t>世界越野锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%8D%8A%E7%A8%8B%E9%A6%AC%E6%8B%89%E6%9D%BE%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>世界半程馬拉松錦標賽</t>
+    <t>世界半程马拉松锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%AD%A3%E5%B8%95%E6%8B%89%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>夏季帕拉林匹克運動會</t>
+    <t>夏季帕拉林匹克运动会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/IPC_Athletics_World_Championships</t>
@@ -185,19 +185,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%93%B2%E9%90%B5%E9%A4%85</t>
   </si>
   <si>
-    <t>擲鐵餅</t>
+    <t>掷铁饼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%93%B2%E6%A8%99%E6%A7%8D</t>
   </si>
   <si>
-    <t>擲標槍</t>
+    <t>掷标枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%93%B2%E9%8F%88%E7%90%83</t>
   </si>
   <si>
-    <t>擲鏈球</t>
+    <t>掷链球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%AD%E8%B7%91</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/2012%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>2012年夏季奧林匹克運動會</t>
+    <t>2012年夏季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E5%A4%8F%E5%AD%A3%E6%AE%8B%E5%A5%A5%E4%BC%9A%E7%94%B0%E5%BE%84%E6%AF%94%E8%B5%9B</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%B8%95%E6%8B%89%E6%9E%97%E5%8C%B9%E5%85%8B%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>國際帕拉林匹克委員會</t>
+    <t>国际帕拉林匹克委员会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Athletics_at_the_1960_Summer_Paralympics</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E5%8A%9B%E9%9A%9C%E7%A4%99</t>
   </si>
   <si>
-    <t>視力障礙</t>
+    <t>视力障碍</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/sighted_guide</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%A6%E9%BA%BB%E7%97%BA</t>
   </si>
   <si>
-    <t>腦麻痺</t>
+    <t>脑麻痺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%AA%E8%82%A2</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4%E5%80%AB%E6%95%A6%E9%A6%AC%E6%8B%89%E6%9D%BE</t>
   </si>
   <si>
-    <t>2013年倫敦馬拉松</t>
+    <t>2013年伦敦马拉松</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Marla_Runyan</t>
@@ -335,19 +335,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E5%8D%A1%C2%B7%E7%9A%AE%E6%96%AF%E6%89%98%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>奧斯卡·皮斯托利斯</t>
+    <t>奥斯卡·皮斯托利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2012%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
   </si>
   <si>
-    <t>2012年夏季奥林匹克运动会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/2011%E5%B9%B4%E4%B8%96%E7%95%8C%E7%94%B0%E5%BE%91%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>2011年世界田徑錦標賽</t>
+    <t>2011年世界田径锦标赛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/%E7%94%B7%E5%AD%904%C3%97400%E7%B1%B3%E6%8E%A5%E5%8A%9B</t>
@@ -377,13 +374,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%B3%E9%81%A0</t>
   </si>
   <si>
-    <t>跳遠</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%A4%A9%E5%80%99%E8%B7%91%E9%81%93</t>
@@ -395,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>公園</t>
+    <t>公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E5%9C%B0</t>
@@ -413,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A</t>
   </si>
   <si>
-    <t>多倫多</t>
+    <t>多伦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A</t>
@@ -425,15 +419,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>奧林匹克運動會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%94%B0%E5%BE%91%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>世界田徑錦標賽</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%94%B0%E8%81%94%E9%92%BB%E7%9F%B3%E8%81%94%E8%B5%9B</t>
   </si>
   <si>
@@ -449,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>職業運動</t>
+    <t>职业运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E7%94%B0%E5%BE%91%E7%B8%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>亞洲田徑總會</t>
+    <t>亚洲田径总会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Confederation_of_African_Athletics</t>
@@ -515,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E8%BE%AD%E5%AD%B8_(%E4%BA%9E%E9%87%8C%E6%96%AF%E5%A4%9A%E5%BE%B7)</t>
   </si>
   <si>
-    <t>修辭學 (亞里斯多德)</t>
+    <t>修辞学 (亚里斯多德)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Loneliness_of_the_Long_Distance_Runner_(film)</t>
@@ -533,13 +521,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%88%E7%81%AB%E6%88%B0%E8%BB%8A_(1981%E5%B9%B4%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>烈火戰車 (1981年電影)</t>
+    <t>烈火战车 (1981年电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%87%8C%E5%85%8B%C2%B7%E5%88%A9%E5%BE%B7%E7%88%BE</t>
   </si>
   <si>
-    <t>埃里克·利德爾</t>
+    <t>埃里克·利德尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Harold_Abrahams</t>
@@ -587,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%89%B9%C2%B7%E8%98%AD%E5%8D%A1%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>伯特·蘭卡斯特</t>
+    <t>伯特·兰卡斯特</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jim_Thorpe_%E2%80%93_All-American</t>
@@ -605,13 +593,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E9%A6%AC%E6%8B%89%E6%9D%BE</t>
   </si>
   <si>
-    <t>芝加哥馬拉松</t>
+    <t>芝加哥马拉松</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E5%BE%91%E7%B4%80%E9%8C%84%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>田徑紀錄列表</t>
+    <t>田径纪录列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A%E7%94%B7%E5%AD%90%E7%94%B0%E5%BE%84%E5%A5%96%E7%89%8C%E5%BE%97%E4%B8%BB%E5%88%97%E8%A1%A8</t>
@@ -659,9 +647,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E5%BE%91</t>
   </si>
   <si>
-    <t>田徑</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A%E7%94%B0%E5%BE%84%E6%AF%94%E8%B5%9B</t>
   </si>
   <si>
@@ -689,13 +674,13 @@
     <t>https://zh.wikipedia.org/wiki/100%E7%B1%B3%E8%B3%BD%E8%B7%91</t>
   </si>
   <si>
-    <t>100米賽跑</t>
+    <t>100米赛跑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/200%E7%B1%B3%E8%B3%BD%E8%B7%91</t>
   </si>
   <si>
-    <t>200米賽跑</t>
+    <t>200米赛跑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/400%E7%B1%B3%E8%B5%9B%E8%B7%91</t>
@@ -707,13 +692,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E6%AC%84</t>
   </si>
   <si>
-    <t>跨欄</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/110%E7%B1%B3%E8%B7%A8%E6%AC%84</t>
   </si>
   <si>
-    <t>110米跨欄</t>
+    <t>110米跨栏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%95%BF%E8%B7%91</t>
@@ -731,19 +713,19 @@
     <t>https://zh.wikipedia.org/wiki/1500%E7%B1%B3%E8%B3%BD%E8%B7%91</t>
   </si>
   <si>
-    <t>1500米賽跑</t>
+    <t>1500米赛跑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1%E8%8B%B1%E9%87%8C%E8%B3%BD%E8%B7%91</t>
   </si>
   <si>
-    <t>1英里賽跑</t>
+    <t>1英里赛跑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/3000%E7%B1%B3%E8%B3%BD%E8%B7%91</t>
   </si>
   <si>
-    <t>3000米賽跑</t>
+    <t>3000米赛跑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/3000%E7%B1%B3%E9%9A%9C%E7%A2%8D%E8%B5%9B</t>
@@ -755,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/2%E8%8B%B1%E9%87%8C%E8%B3%BD%E8%B7%91</t>
   </si>
   <si>
-    <t>2英里賽跑</t>
+    <t>2英里赛跑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/5000%E7%B1%B3%E8%B5%9B%E8%B7%91</t>
@@ -779,13 +761,13 @@
     <t>https://zh.wikipedia.org/wiki/400%E7%B1%B3%E6%8E%A5%E5%8A%9B%E8%B3%BD%E8%B7%91</t>
   </si>
   <si>
-    <t>400米接力賽跑</t>
+    <t>400米接力赛跑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1600%E7%B1%B3%E6%8E%A5%E5%8A%9B%E8%B3%BD%E8%B7%91</t>
   </si>
   <si>
-    <t>1600米接力賽跑</t>
+    <t>1600米接力赛跑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%81%E9%A5%BC</t>
@@ -797,13 +779,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8F%88%E7%90%83</t>
   </si>
   <si>
-    <t>鏈球</t>
+    <t>链球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%89%9B%E7%90%83</t>
   </si>
   <si>
-    <t>鉛球</t>
+    <t>铅球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E5%AE%9A%E8%B7%B3%E9%AB%98</t>
@@ -821,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%B4%9A%E8%B7%B3%E9%81%A0</t>
   </si>
   <si>
-    <t>三級跳遠</t>
+    <t>三级跳远</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%91%E6%9D%86%E8%B7%B3%E9%AB%98</t>
@@ -833,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E9%A0%85%E5%85%A8%E8%83%BD</t>
   </si>
   <si>
-    <t>七項全能</t>
+    <t>七项全能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E7%A8%8B%E9%A9%AC%E6%8B%89%E6%9D%BE</t>
@@ -845,13 +827,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E6%9D%BE</t>
   </si>
   <si>
-    <t>馬拉松</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%9B%E7%AB%99%E6%8E%A5%E5%8A%9B%E8%B3%BD</t>
   </si>
   <si>
-    <t>驛站接力賽</t>
+    <t>驿站接力赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/20%E5%85%AC%E9%87%8C%E7%AB%9E%E8%B5%B0</t>
@@ -869,13 +848,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E9%A6%AC%E6%8B%89%E6%9D%BE</t>
   </si>
   <si>
-    <t>超級馬拉松</t>
+    <t>超级马拉松</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%B8%95%E6%8B%89%E7%94%B0%E5%BE%91%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>世界帕拉田徑錦標賽</t>
+    <t>世界帕拉田径锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%AE%A4%E5%86%85%E7%94%B0%E5%BE%84%E9%94%A6%E6%A0%87%E8%B5%9B</t>
@@ -899,13 +878,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E8%B5%B0%E4%B8%96%E7%95%8C%E7%9B%83</t>
   </si>
   <si>
-    <t>競走世界盃</t>
+    <t>竞走世界杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%8E%A5%E5%8A%9B%E8%B3%BD</t>
   </si>
   <si>
-    <t>世界接力賽</t>
+    <t>世界接力赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E7%94%B0%E5%BE%84%E9%94%A6%E6%A0%87%E8%B5%9B</t>
@@ -917,67 +896,67 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E5%AE%A4%E5%85%A7%E7%94%B0%E5%BE%91%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>亞洲室內田徑錦標賽</t>
+    <t>亚洲室内田径锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%A6%AC%E6%8B%89%E6%9D%BE%E5%A4%A7%E6%BB%BF%E8%B2%AB</t>
   </si>
   <si>
-    <t>世界馬拉松大滿貫</t>
+    <t>世界马拉松大满贯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E9%81%8B%E5%8B%95%E6%9C%83%E7%94%B0%E5%BE%91%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>亞洲運動會田徑比賽</t>
+    <t>亚洲运动会田径比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%AD%A3%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%B8%E9%81%8B%E5%8B%95%E6%9C%83%E7%94%B0%E5%BE%91%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>夏季世界大學運動會田徑比賽</t>
+    <t>夏季世界大学运动会田径比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>運動會</t>
+    <t>运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E9%9D%92%E5%B9%B4%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>亞洲青年運動會</t>
+    <t>亚洲青年运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E9%9D%92%E5%B0%91%E5%B9%B4%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>歐洲青少年奧林匹克運動會</t>
+    <t>欧洲青少年奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%B5%B7%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>黑海運動會</t>
+    <t>黑海运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%B0%8F%E5%9C%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>歐洲小國運動會</t>
+    <t>欧洲小国运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>島嶼運動會</t>
+    <t>岛屿运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -989,7 +968,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3013,7 +2992,7 @@
         <v>107</v>
       </c>
       <c r="F58" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3039,10 +3018,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" t="s">
         <v>109</v>
-      </c>
-      <c r="F59" t="s">
-        <v>110</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -3068,10 +3047,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>110</v>
+      </c>
+      <c r="F60" t="s">
         <v>111</v>
-      </c>
-      <c r="F60" t="s">
-        <v>112</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -3097,10 +3076,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>112</v>
+      </c>
+      <c r="F61" t="s">
         <v>113</v>
-      </c>
-      <c r="F61" t="s">
-        <v>114</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -3126,10 +3105,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" t="s">
         <v>115</v>
-      </c>
-      <c r="F62" t="s">
-        <v>116</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -3155,10 +3134,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63" t="s">
         <v>117</v>
-      </c>
-      <c r="F63" t="s">
-        <v>118</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3184,10 +3163,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F64" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="G64" t="n">
         <v>9</v>
@@ -3213,10 +3192,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F65" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -3242,10 +3221,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F66" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3271,10 +3250,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F67" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3300,10 +3279,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F68" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3329,10 +3308,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3358,10 +3337,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F70" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3387,10 +3366,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F71" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3416,10 +3395,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F72" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3445,10 +3424,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F73" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="G73" t="n">
         <v>3</v>
@@ -3474,10 +3453,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3503,10 +3482,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F75" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3532,10 +3511,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F76" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3561,10 +3540,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F77" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3590,10 +3569,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F78" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3619,10 +3598,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F79" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3648,10 +3627,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F80" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3677,10 +3656,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F81" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3706,10 +3685,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F82" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3735,10 +3714,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F83" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3764,10 +3743,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3793,10 +3772,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3822,10 +3801,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3851,10 +3830,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3880,10 +3859,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3909,10 +3888,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -3938,10 +3917,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F90" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3967,10 +3946,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F91" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3996,10 +3975,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4025,10 +4004,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F93" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4054,10 +4033,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4083,10 +4062,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4112,10 +4091,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4141,10 +4120,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4170,10 +4149,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4199,10 +4178,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4228,10 +4207,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4257,10 +4236,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4286,10 +4265,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4315,10 +4294,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4344,10 +4323,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4373,10 +4352,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4402,10 +4381,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4431,10 +4410,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4460,10 +4439,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4489,10 +4468,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G109" t="n">
         <v>5</v>
@@ -4518,10 +4497,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4547,10 +4526,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
         <v>63</v>
@@ -4605,10 +4584,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4634,10 +4613,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -4663,10 +4642,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -4692,10 +4671,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -4721,10 +4700,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -4750,10 +4729,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -4779,10 +4758,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G119" t="n">
         <v>3</v>
@@ -4808,10 +4787,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="G120" t="n">
         <v>6</v>
@@ -4837,10 +4816,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4866,10 +4845,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4895,10 +4874,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -4924,10 +4903,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -4953,10 +4932,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -4982,10 +4961,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5011,10 +4990,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5040,10 +5019,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5098,10 +5077,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5127,10 +5106,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5156,10 +5135,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5214,10 +5193,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F134" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5243,10 +5222,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F135" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5272,10 +5251,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F136" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G136" t="n">
         <v>4</v>
@@ -5301,10 +5280,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F137" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G137" t="n">
         <v>5</v>
@@ -5359,10 +5338,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F139" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -5388,10 +5367,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F140" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5417,10 +5396,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F141" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5446,10 +5425,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F142" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G142" t="n">
         <v>4</v>
@@ -5475,10 +5454,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F143" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5504,10 +5483,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F144" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -5533,10 +5512,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F145" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G145" t="n">
         <v>5</v>
@@ -5562,10 +5541,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F146" t="s">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="G146" t="n">
         <v>16</v>
@@ -5591,10 +5570,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F147" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5620,10 +5599,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F148" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -5649,10 +5628,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F149" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -5678,10 +5657,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F150" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5736,10 +5715,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F152" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5765,10 +5744,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F153" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G153" t="n">
         <v>9</v>
@@ -5794,10 +5773,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F154" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5823,10 +5802,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F155" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5852,10 +5831,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F156" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5881,10 +5860,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F157" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5910,10 +5889,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F158" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5939,10 +5918,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F159" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5968,10 +5947,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F160" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G160" t="n">
         <v>3</v>
@@ -5997,10 +5976,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F161" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G161" t="n">
         <v>12</v>
@@ -6026,10 +6005,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F162" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G162" t="n">
         <v>5</v>
@@ -6055,10 +6034,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F163" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6084,10 +6063,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F164" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6113,10 +6092,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F165" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G165" t="n">
         <v>5</v>
@@ -6142,10 +6121,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F166" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6171,10 +6150,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F167" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G167" t="n">
         <v>50</v>
@@ -6200,10 +6179,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F168" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6229,10 +6208,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F169" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -6258,10 +6237,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F170" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6287,10 +6266,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F171" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6316,10 +6295,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F172" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6345,10 +6324,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F173" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6374,10 +6353,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F174" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6403,10 +6382,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F175" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G175" t="n">
         <v>3</v>
@@ -6432,10 +6411,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F176" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6461,10 +6440,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F177" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>

--- a/xlsx/田径_intext.xlsx
+++ b/xlsx/田径_intext.xlsx
@@ -29,7 +29,7 @@
     <t>国际田径联合会</t>
   </si>
   <si>
-    <t>政策_政策_美國_田径</t>
+    <t>体育运动_体育运动_田径</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
@@ -1398,7 +1398,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1427,7 +1427,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1456,7 +1456,7 @@
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1485,7 +1485,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1514,7 +1514,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1543,7 +1543,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1572,7 +1572,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1601,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1630,7 +1630,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1659,7 +1659,7 @@
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1688,7 +1688,7 @@
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1717,7 +1717,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1746,7 +1746,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1775,7 +1775,7 @@
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1804,7 +1804,7 @@
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1833,7 +1833,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1862,7 +1862,7 @@
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1891,7 +1891,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1920,7 +1920,7 @@
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1949,7 +1949,7 @@
         <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1978,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2007,7 +2007,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2036,7 +2036,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2065,7 +2065,7 @@
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2094,7 +2094,7 @@
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2123,7 +2123,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2152,7 +2152,7 @@
         <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2181,7 +2181,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2210,7 +2210,7 @@
         <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2239,7 +2239,7 @@
         <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2268,7 +2268,7 @@
         <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2297,7 +2297,7 @@
         <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2326,7 +2326,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2355,7 +2355,7 @@
         <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2384,7 +2384,7 @@
         <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2413,7 +2413,7 @@
         <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2442,7 +2442,7 @@
         <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2471,7 +2471,7 @@
         <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2500,7 +2500,7 @@
         <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2529,7 +2529,7 @@
         <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2558,7 +2558,7 @@
         <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2587,7 +2587,7 @@
         <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2616,7 +2616,7 @@
         <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2645,7 +2645,7 @@
         <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2674,7 +2674,7 @@
         <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2703,7 +2703,7 @@
         <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2732,7 +2732,7 @@
         <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2761,7 +2761,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2790,7 +2790,7 @@
         <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2819,7 +2819,7 @@
         <v>4</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2848,7 +2848,7 @@
         <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2877,7 +2877,7 @@
         <v>4</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2906,7 +2906,7 @@
         <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2935,7 +2935,7 @@
         <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2964,7 +2964,7 @@
         <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2993,7 +2993,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3022,7 +3022,7 @@
         <v>4</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3051,7 +3051,7 @@
         <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3080,7 +3080,7 @@
         <v>4</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3109,7 +3109,7 @@
         <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3138,7 +3138,7 @@
         <v>4</v>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3167,7 +3167,7 @@
         <v>4</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3196,7 +3196,7 @@
         <v>4</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3225,7 +3225,7 @@
         <v>4</v>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3254,7 +3254,7 @@
         <v>4</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3283,7 +3283,7 @@
         <v>4</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3312,7 +3312,7 @@
         <v>4</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3341,7 +3341,7 @@
         <v>4</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3370,7 +3370,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3399,7 +3399,7 @@
         <v>4</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3428,7 +3428,7 @@
         <v>4</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3457,7 +3457,7 @@
         <v>4</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3486,7 +3486,7 @@
         <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3515,7 +3515,7 @@
         <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3544,7 +3544,7 @@
         <v>4</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3573,7 +3573,7 @@
         <v>4</v>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3602,7 +3602,7 @@
         <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3631,7 +3631,7 @@
         <v>4</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3660,7 +3660,7 @@
         <v>4</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3689,7 +3689,7 @@
         <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3718,7 +3718,7 @@
         <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3747,7 +3747,7 @@
         <v>4</v>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3776,7 +3776,7 @@
         <v>4</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3805,7 +3805,7 @@
         <v>4</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3863,7 +3863,7 @@
         <v>4</v>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3892,7 +3892,7 @@
         <v>4</v>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3921,7 +3921,7 @@
         <v>4</v>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3950,7 +3950,7 @@
         <v>4</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3979,7 +3979,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4008,7 +4008,7 @@
         <v>4</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4037,7 +4037,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4066,7 +4066,7 @@
         <v>4</v>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4095,7 +4095,7 @@
         <v>4</v>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4124,7 +4124,7 @@
         <v>4</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4153,7 +4153,7 @@
         <v>4</v>
       </c>
       <c r="I97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4182,7 +4182,7 @@
         <v>4</v>
       </c>
       <c r="I98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4211,7 +4211,7 @@
         <v>4</v>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4240,7 +4240,7 @@
         <v>4</v>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4269,7 +4269,7 @@
         <v>4</v>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4298,7 +4298,7 @@
         <v>4</v>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4327,7 +4327,7 @@
         <v>4</v>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4356,7 +4356,7 @@
         <v>4</v>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4385,7 +4385,7 @@
         <v>4</v>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4414,7 +4414,7 @@
         <v>4</v>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4443,7 +4443,7 @@
         <v>4</v>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4472,7 +4472,7 @@
         <v>4</v>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4501,7 +4501,7 @@
         <v>4</v>
       </c>
       <c r="I109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4530,7 +4530,7 @@
         <v>4</v>
       </c>
       <c r="I110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4559,7 +4559,7 @@
         <v>4</v>
       </c>
       <c r="I111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4588,7 +4588,7 @@
         <v>4</v>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4617,7 +4617,7 @@
         <v>4</v>
       </c>
       <c r="I113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4646,7 +4646,7 @@
         <v>4</v>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4675,7 +4675,7 @@
         <v>4</v>
       </c>
       <c r="I115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4704,7 +4704,7 @@
         <v>4</v>
       </c>
       <c r="I116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4733,7 +4733,7 @@
         <v>4</v>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4762,7 +4762,7 @@
         <v>4</v>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4791,7 +4791,7 @@
         <v>4</v>
       </c>
       <c r="I119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4820,7 +4820,7 @@
         <v>4</v>
       </c>
       <c r="I120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4849,7 +4849,7 @@
         <v>4</v>
       </c>
       <c r="I121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4878,7 +4878,7 @@
         <v>4</v>
       </c>
       <c r="I122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4907,7 +4907,7 @@
         <v>4</v>
       </c>
       <c r="I123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4936,7 +4936,7 @@
         <v>4</v>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4965,7 +4965,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4994,7 +4994,7 @@
         <v>4</v>
       </c>
       <c r="I126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -5023,7 +5023,7 @@
         <v>4</v>
       </c>
       <c r="I127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5052,7 +5052,7 @@
         <v>4</v>
       </c>
       <c r="I128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -5081,7 +5081,7 @@
         <v>4</v>
       </c>
       <c r="I129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5110,7 +5110,7 @@
         <v>4</v>
       </c>
       <c r="I130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5139,7 +5139,7 @@
         <v>4</v>
       </c>
       <c r="I131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5168,7 +5168,7 @@
         <v>4</v>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5197,7 +5197,7 @@
         <v>4</v>
       </c>
       <c r="I133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5226,7 +5226,7 @@
         <v>4</v>
       </c>
       <c r="I134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5255,7 +5255,7 @@
         <v>4</v>
       </c>
       <c r="I135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5284,7 +5284,7 @@
         <v>4</v>
       </c>
       <c r="I136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5313,7 +5313,7 @@
         <v>4</v>
       </c>
       <c r="I137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5342,7 +5342,7 @@
         <v>4</v>
       </c>
       <c r="I138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5371,7 +5371,7 @@
         <v>4</v>
       </c>
       <c r="I139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5400,7 +5400,7 @@
         <v>4</v>
       </c>
       <c r="I140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5429,7 +5429,7 @@
         <v>4</v>
       </c>
       <c r="I141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5458,7 +5458,7 @@
         <v>4</v>
       </c>
       <c r="I142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5487,7 +5487,7 @@
         <v>4</v>
       </c>
       <c r="I143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5516,7 +5516,7 @@
         <v>4</v>
       </c>
       <c r="I144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5545,7 +5545,7 @@
         <v>4</v>
       </c>
       <c r="I145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5574,7 +5574,7 @@
         <v>4</v>
       </c>
       <c r="I146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5603,7 +5603,7 @@
         <v>4</v>
       </c>
       <c r="I147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5632,7 +5632,7 @@
         <v>4</v>
       </c>
       <c r="I148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5661,7 +5661,7 @@
         <v>4</v>
       </c>
       <c r="I149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5690,7 +5690,7 @@
         <v>4</v>
       </c>
       <c r="I150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5719,7 +5719,7 @@
         <v>4</v>
       </c>
       <c r="I151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5748,7 +5748,7 @@
         <v>4</v>
       </c>
       <c r="I152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5777,7 +5777,7 @@
         <v>4</v>
       </c>
       <c r="I153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="I154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5835,7 +5835,7 @@
         <v>4</v>
       </c>
       <c r="I155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5864,7 +5864,7 @@
         <v>4</v>
       </c>
       <c r="I156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5893,7 +5893,7 @@
         <v>4</v>
       </c>
       <c r="I157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5922,7 +5922,7 @@
         <v>4</v>
       </c>
       <c r="I158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5951,7 +5951,7 @@
         <v>4</v>
       </c>
       <c r="I159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5980,7 +5980,7 @@
         <v>4</v>
       </c>
       <c r="I160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -6009,7 +6009,7 @@
         <v>4</v>
       </c>
       <c r="I161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -6038,7 +6038,7 @@
         <v>4</v>
       </c>
       <c r="I162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -6067,7 +6067,7 @@
         <v>4</v>
       </c>
       <c r="I163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -6096,7 +6096,7 @@
         <v>4</v>
       </c>
       <c r="I164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -6125,7 +6125,7 @@
         <v>4</v>
       </c>
       <c r="I165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -6154,7 +6154,7 @@
         <v>4</v>
       </c>
       <c r="I166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -6183,7 +6183,7 @@
         <v>4</v>
       </c>
       <c r="I167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -6212,7 +6212,7 @@
         <v>4</v>
       </c>
       <c r="I168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -6241,7 +6241,7 @@
         <v>4</v>
       </c>
       <c r="I169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -6270,7 +6270,7 @@
         <v>4</v>
       </c>
       <c r="I170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -6299,7 +6299,7 @@
         <v>4</v>
       </c>
       <c r="I171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6328,7 +6328,7 @@
         <v>4</v>
       </c>
       <c r="I172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6357,7 +6357,7 @@
         <v>4</v>
       </c>
       <c r="I173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6386,7 +6386,7 @@
         <v>4</v>
       </c>
       <c r="I174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6415,7 +6415,7 @@
         <v>4</v>
       </c>
       <c r="I175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6444,7 +6444,7 @@
         <v>4</v>
       </c>
       <c r="I176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6473,7 +6473,7 @@
         <v>4</v>
       </c>
       <c r="I177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
